--- a/report/SPTJ.xlsx
+++ b/report/SPTJ.xlsx
@@ -1,31 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mid-henri/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/simontok/report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0CB046DE-51F8-774D-9364-14AD42BE2E82}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC0D7450-5FB6-FE4C-9418-AD9D4B897FB0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="15360" xr2:uid="{5A45F474-352A-0146-804A-9D773A3D369F}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="27320" windowHeight="13660" xr2:uid="{5A45F474-352A-0146-804A-9D773A3D369F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
   <si>
     <t>SURAT PERNYATAAN TANGGUNG JAWAB BELANJA</t>
   </si>
@@ -60,18 +65,12 @@
     <t>Tanggal/No. DIPA</t>
   </si>
   <si>
-    <t>: 05 Desember 2017 / No. SP DIPA-024.12.2.632242/2018</t>
-  </si>
-  <si>
     <t>4.</t>
   </si>
   <si>
     <t>Klasifikasi Anggaran</t>
   </si>
   <si>
-    <t>: 01 / 01 / 024.12.10 / 5034 / 603 / 057.C/ 524111</t>
-  </si>
-  <si>
     <t>Yang bertanda tangan di bawah ini atas nama Kuasa Pengguna Anggaran Satuan Kerja Politeknik Kesehatan Kementerian Kesehatan Semarang, menyatakan bahwa saya bertanggung jawab secara formal dan material atas segala pengeluaran yang telah dibayar lunas oleh Bendahara Pengeluaran kepada yang berhak menerima serta kebenaran perhitungan dan setoran pajak yang telah dipungut atas pembayaran tersebut dengan perincian sebagai berikut :</t>
   </si>
   <si>
@@ -138,30 +137,6 @@
     <t>j</t>
   </si>
   <si>
-    <t>Arif Faisal</t>
-  </si>
-  <si>
-    <t>Biaya Perjalanan Dinas Jakarta- Semarang PP Pertemuan sosialisasi kebijakan penganggaran dan pembiayaan untuk Poltekkes PK BLU Poltekkes Kemenkes Semarang tanggal 10 November 2018</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>Widodo, SST, Mkes</t>
-  </si>
-  <si>
-    <t>Biaya Perjalanan Dinas Semarang- Bandung PP untuk mengikuti Musyawarah Nasional II PPLPI dan Seminar Nasional PLP Tahun 2018 di Universitas Padjajaran Bandung tanggal 27-29 Agustus 2018</t>
-  </si>
-  <si>
-    <t>02</t>
-  </si>
-  <si>
-    <t>Ahmad Sugeng Prayitno, BSc. SKp</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
     <t>JUMLAH</t>
   </si>
   <si>
@@ -180,16 +155,7 @@
     <t>Bendahara Pengeluaran</t>
   </si>
   <si>
-    <t>Marsum, BE, S.Pd, MHP.</t>
-  </si>
-  <si>
-    <t>Wahyu Dwi Nuryanti, A.Md</t>
-  </si>
-  <si>
-    <t>NIP. 196307271984031001</t>
-  </si>
-  <si>
-    <t>NIP. 198612042014022002</t>
+    <t>:</t>
   </si>
 </sst>
 </file>
@@ -416,11 +382,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -431,97 +394,97 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left" vertical="justify"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -840,10 +803,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C34CA67-9FB6-8E40-9524-0631FCC45838}">
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27:I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -861,518 +824,433 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4" t="s">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="21" t="s">
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="5" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="5" t="s">
+      <c r="B4" s="2"/>
+      <c r="C4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="5" t="s">
+      <c r="B5" s="2"/>
+      <c r="C5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="B6" s="2"/>
+      <c r="C6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="5" t="s">
+      <c r="D6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-    </row>
-    <row r="8" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
+      <c r="B10" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-    </row>
-    <row r="10" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
+      <c r="C10" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="D10" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="E10" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="F10" s="24"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="32" t="s">
+      <c r="I10" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="33"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="7" t="s">
+      <c r="J10" s="30"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="21"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="32"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="21"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="I10" s="27" t="s">
+      <c r="F12" s="20"/>
+      <c r="G12" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="J10" s="28"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="31"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="30"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="31"/>
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="7" t="s">
+      <c r="H12" s="21"/>
+      <c r="I12" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7" t="s">
+      <c r="J12" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="H12" s="31"/>
-      <c r="I12" s="7" t="s">
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="22"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J12" s="7" t="s">
+      <c r="B14" s="5" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="9" t="s">
+      <c r="C14" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="D14" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="E14" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="F14" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="G14" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="H14" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="I14" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="H14" s="9" t="s">
+      <c r="J14" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="I14" s="9" t="s">
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="9"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="J14" s="9" t="s">
+      <c r="D16" s="34"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="12">
+        <f>SUM(H15:H15)</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="12">
+        <f>SUM(I15:I15)</f>
+        <v>0</v>
+      </c>
+      <c r="J16" s="12">
+        <f>SUM(J15:J15)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+    </row>
+    <row r="18" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="18" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="9">
-        <v>1</v>
-      </c>
-      <c r="B15" s="9">
-        <v>524111</v>
-      </c>
-      <c r="C15" s="22" t="s">
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="1"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="H15" s="11">
-        <v>2664500</v>
-      </c>
-      <c r="I15" s="12"/>
-      <c r="J15" s="13"/>
-    </row>
-    <row r="16" spans="1:10" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="9">
-        <v>2</v>
-      </c>
-      <c r="B16" s="9">
-        <v>524111</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="H16" s="11">
-        <v>1560000</v>
-      </c>
-      <c r="I16" s="12"/>
-      <c r="J16" s="13"/>
-    </row>
-    <row r="17" spans="1:10" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="9">
-        <v>3</v>
-      </c>
-      <c r="B17" s="9">
-        <v>524111</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="H17" s="11">
-        <v>1929500</v>
-      </c>
-      <c r="I17" s="12"/>
-      <c r="J17" s="13"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="13"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" s="26"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="16">
-        <f>SUM(H15:H18)</f>
-        <v>6154000</v>
-      </c>
-      <c r="I19" s="16">
-        <f>SUM(I15:I18)</f>
-        <v>0</v>
-      </c>
-      <c r="J19" s="16">
-        <f>SUM(J15:J18)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="2"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-    </row>
-    <row r="21" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="2"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="1"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="2"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
+      <c r="A22" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="1"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="3"/>
+      <c r="A23" s="1"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="2"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
+      <c r="A24" s="1"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
-      <c r="H24" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
+      <c r="A25" s="1"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="2"/>
       <c r="J25" s="2"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="2"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
+      <c r="A26" s="36"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="14"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="2"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="2"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="H29" s="20"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="19"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="H30" s="18"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="2"/>
+      <c r="A27" s="35"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="A21:J21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="A18:J18"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A8:J8"/>
     <mergeCell ref="A10:A13"/>
@@ -1383,6 +1261,11 @@
     <mergeCell ref="H10:H13"/>
     <mergeCell ref="I10:J11"/>
     <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="C16:D16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
